--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5181AF-8A5E-41C5-A5D9-7221D56F8EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA565F3-3C5F-41EF-9E6E-B6082FBC9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1430" windowWidth="33150" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{A3DFC3C4-356C-43D8-8A92-E07B17696A23}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7E72EA85-A19F-4CC9-B677-EC81E4FA3F13}">
       <text>
         <r>
           <rPr>
@@ -70,8 +73,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Suomen Rahapaja
-(Finland (Vantaa) mint)</t>
+          <t>Koninklijke Nederlandse Munt
+(Royal Dutch Mint(Utrecht))</t>
         </r>
       </text>
     </comment>
@@ -112,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="90">
   <si>
     <t>Year</t>
   </si>
@@ -381,6 +384,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Finland-Sweden Athletics Match</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +695,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,17 +716,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,8 +728,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -733,6 +745,23 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -886,23 +915,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -924,9 +936,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1201,7 +1213,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1216,28 +1228,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="34"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="23" t="s">
         <v>71</v>
       </c>
@@ -1256,8 +1268,8 @@
       <c r="G2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>30</v>
+      <c r="H2" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1287,13 +1299,13 @@
       <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="8" t="str">
@@ -1321,13 +1333,13 @@
       <c r="G4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K4" s="8" t="str">
@@ -1355,13 +1367,13 @@
       <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K5" s="8" t="str">
@@ -1389,13 +1401,13 @@
       <c r="G6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K6" s="8" t="str">
@@ -1425,13 +1437,13 @@
       <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K7" s="8" t="str">
@@ -1459,13 +1471,13 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K8" s="8" t="str">
@@ -1493,13 +1505,13 @@
       <c r="G9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K9" s="8" t="str">
@@ -1529,13 +1541,13 @@
       <c r="G10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K10" s="8" t="str">
@@ -1563,13 +1575,13 @@
       <c r="G11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K11" s="8" t="str">
@@ -1597,13 +1609,13 @@
       <c r="G12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K12" s="8" t="str">
@@ -1631,13 +1643,13 @@
       <c r="G13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K13" s="8" t="str">
@@ -1667,13 +1679,13 @@
       <c r="G14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K14" s="8" t="str">
@@ -1701,13 +1713,13 @@
       <c r="G15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K15" s="8" t="str">
@@ -1737,13 +1749,13 @@
       <c r="G16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="8" t="str">
@@ -1771,13 +1783,13 @@
       <c r="G17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K17" s="8" t="str">
@@ -1805,13 +1817,13 @@
       <c r="G18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K18" s="8" t="str">
@@ -1839,13 +1851,13 @@
       <c r="G19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K19" s="8" t="str">
@@ -1873,13 +1885,13 @@
       <c r="G20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K20" s="8" t="str">
@@ -1909,13 +1921,13 @@
       <c r="G21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K21" s="8" t="str">
@@ -1943,13 +1955,13 @@
       <c r="G22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K22" s="8" t="str">
@@ -1977,13 +1989,13 @@
       <c r="G23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K23" s="8" t="str">
@@ -2013,13 +2025,13 @@
       <c r="G24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K24" s="8" t="str">
@@ -2047,13 +2059,13 @@
       <c r="G25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K25" s="8" t="str">
@@ -2081,13 +2093,13 @@
       <c r="G26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K26" s="8" t="str">
@@ -2115,13 +2127,13 @@
       <c r="G27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="18">
         <v>1</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K27" s="8" t="str">
@@ -2149,13 +2161,13 @@
       <c r="G28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K28" s="8" t="str">
@@ -2183,13 +2195,13 @@
       <c r="G29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K29" s="8" t="str">
@@ -2217,13 +2229,13 @@
       <c r="G30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K30" s="8" t="str">
@@ -2251,13 +2263,13 @@
       <c r="G31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K31" s="8" t="str">
@@ -2287,13 +2299,13 @@
       <c r="G32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I32" s="7">
         <v>1</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K32" s="8" t="str">
@@ -2321,13 +2333,13 @@
       <c r="G33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K33" s="8" t="str">
@@ -2357,13 +2369,13 @@
       <c r="G34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I34" s="7">
         <v>1</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K34" s="8" t="str">
@@ -2391,13 +2403,13 @@
       <c r="G35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K35" s="8" t="str">
@@ -2425,13 +2437,13 @@
       <c r="G36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I36" s="7">
         <v>1</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K36" s="8" t="str">
@@ -2459,13 +2471,13 @@
       <c r="G37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I37" s="7">
         <v>1</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K37" s="8" t="str">
@@ -2493,13 +2505,13 @@
       <c r="G38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I38" s="7">
         <v>1</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2523,13 +2535,13 @@
       <c r="G39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
       </c>
-      <c r="J39" s="32" t="s">
+      <c r="J39" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2550,13 +2562,13 @@
       <c r="F40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="25" t="s">
         <v>88</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="24" t="s">
         <v>88</v>
       </c>
       <c r="J40" s="7">
@@ -2569,15 +2581,31 @@
       <c r="A41" s="4">
         <v>2025</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2588,12 +2616,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I5 I7 I9 I11 I13 I15 I17 I19 I21 I23 I25">
-    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I5 I7 I9 I11 I13 I15 I17 I19 I21 I23 I25">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="I5 I3 I7 I9 I11 I13 I15 I17 I19 I21 I23 I25">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2605,12 +2633,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I6 I8 I10 I12 I14 I16 I18 I20 I22 I24 I26">
-    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I6 I8 I10 I12 I14 I16 I18 I20 I22 I24 I26">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="I6 I4 I8 I10 I12 I14 I16 I18 I20 I22 I24 I26">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2622,11 +2650,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2638,12 +2683,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2655,12 +2717,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2672,12 +2734,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2689,12 +2751,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2706,13 +2768,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2723,12 +2785,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2740,12 +2802,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2757,13 +2870,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2774,80 +2887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J41">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J41">
+  <conditionalFormatting sqref="J3:J39">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2859,12 +2899,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="J3:J39">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2876,24 +2933,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J39">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J39">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="J41">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2903,11 +2953,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
